--- a/thresholds/IGCSE/art-and-design/art-and-design-thresholds.xlsx
+++ b/thresholds/IGCSE/art-and-design/art-and-design-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,41 +575,41 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A 01,02</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C4" t="n">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="G4" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -650,14 +650,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>B 02,66</t>
+          <t>A 01,02</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -698,7 +698,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>A 01,02</t>
+          <t>B 02,66</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -732,14 +732,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>B 02,66</t>
+          <t>A 01,02</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -780,41 +780,41 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>A 01,02</t>
+          <t>B 02,66</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D9" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E9" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F9" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H9" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
@@ -828,34 +828,34 @@
         <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D10" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E10" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F10" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G10" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H10" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D11" t="n">
         <v>134</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
@@ -910,34 +910,34 @@
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D12" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E12" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F12" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G12" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H12" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>June 2022</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
@@ -978,87 +978,251 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>A 01,02</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D14" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="G14" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>B 02,66</t>
+          <t>A 01,02</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>200</v>
       </c>
       <c r="C15" t="n">
+        <v>149</v>
+      </c>
+      <c r="D15" t="n">
+        <v>129</v>
+      </c>
+      <c r="E15" t="n">
+        <v>109</v>
+      </c>
+      <c r="F15" t="n">
+        <v>89</v>
+      </c>
+      <c r="G15" t="n">
+        <v>71</v>
+      </c>
+      <c r="H15" t="n">
+        <v>54</v>
+      </c>
+      <c r="I15" t="n">
+        <v>37</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>November 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90</v>
+      </c>
+      <c r="C16" t="n">
+        <v>76</v>
+      </c>
+      <c r="D16" t="n">
+        <v>67</v>
+      </c>
+      <c r="E16" t="n">
+        <v>58</v>
+      </c>
+      <c r="F16" t="n">
+        <v>49</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" t="n">
+        <v>31</v>
+      </c>
+      <c r="I16" t="n">
+        <v>22</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>November 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>A 01,02</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="n">
         <v>154</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>134</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E17" t="n">
         <v>114</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F17" t="n">
         <v>94</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>76</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>58</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>40</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>B 02,66</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>154</v>
+      </c>
+      <c r="D18" t="n">
+        <v>134</v>
+      </c>
+      <c r="E18" t="n">
+        <v>114</v>
+      </c>
+      <c r="F18" t="n">
+        <v>94</v>
+      </c>
+      <c r="G18" t="n">
+        <v>76</v>
+      </c>
+      <c r="H18" t="n">
+        <v>58</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>90</v>
+      </c>
+      <c r="C19" t="n">
+        <v>78</v>
+      </c>
+      <c r="D19" t="n">
+        <v>69</v>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>51</v>
+      </c>
+      <c r="G19" t="n">
+        <v>42</v>
+      </c>
+      <c r="H19" t="n">
+        <v>33</v>
+      </c>
+      <c r="I19" t="n">
+        <v>24</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>November 2023</t>
         </is>
